--- a/汽柴煤油2.0/eta/TA-SC_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/TA-SC_月度数据.xlsx
@@ -1,37 +1,123 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>真实值</t>
+  </si>
+  <si>
+    <t>预测值</t>
+  </si>
+  <si>
+    <t>2025/11/30</t>
+  </si>
+  <si>
+    <t>2025/10/31</t>
+  </si>
+  <si>
+    <t>2025/09/30</t>
+  </si>
+  <si>
+    <t>2025/08/31</t>
+  </si>
+  <si>
+    <t>2025/07/31</t>
+  </si>
+  <si>
+    <t>2025/06/30</t>
+  </si>
+  <si>
+    <t>2025/05/31</t>
+  </si>
+  <si>
+    <t>2025/04/30</t>
+  </si>
+  <si>
+    <t>2025/03/31</t>
+  </si>
+  <si>
+    <t>2025/02/28</t>
+  </si>
+  <si>
+    <t>2025/01/31</t>
+  </si>
+  <si>
+    <t>2024/12/31</t>
+  </si>
+  <si>
+    <t>2024/11/30</t>
+  </si>
+  <si>
+    <t>2024/10/31</t>
+  </si>
+  <si>
+    <t>2024/09/30</t>
+  </si>
+  <si>
+    <t>2024/08/31</t>
+  </si>
+  <si>
+    <t>2024/07/31</t>
+  </si>
+  <si>
+    <t>2024/06/30</t>
+  </si>
+  <si>
+    <t>2024/05/31</t>
+  </si>
+  <si>
+    <t>2024/04/30</t>
+  </si>
+  <si>
+    <t>2024/03/31</t>
+  </si>
+  <si>
+    <t>2024/02/29</t>
+  </si>
+  <si>
+    <t>2024/01/31</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +132,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,334 +448,275 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>真实值</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>预测值</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025/11/30</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
-        <v>1934.7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025/10/31</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1952.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
         <v>1906</v>
       </c>
-      <c r="C3" t="n">
-        <v>1926.4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025/09/30</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="C3">
+        <v>1931.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
         <v>1898.7</v>
       </c>
-      <c r="C4" t="n">
-        <v>1940.2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025/08/31</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="C4">
+        <v>1939.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
         <v>1958.5</v>
       </c>
-      <c r="C5" t="n">
-        <v>1969.3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025/07/31</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="C5">
+        <v>1969.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
         <v>1883.6</v>
       </c>
-      <c r="C6" t="n">
-        <v>1894.8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025/06/30</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="C6">
+        <v>1895.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
         <v>1867.8</v>
       </c>
-      <c r="C7" t="n">
-        <v>1888</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025/05/31</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+      <c r="C7">
+        <v>1888.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
         <v>2055.2</v>
       </c>
-      <c r="C8" t="n">
-        <v>2064.8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025/04/30</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+      <c r="C8">
+        <v>2065.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
         <v>1635.2</v>
       </c>
-      <c r="C9" t="n">
-        <v>1690.2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025/03/31</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="C9">
+        <v>1689.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
         <v>1880.9</v>
       </c>
-      <c r="C10" t="n">
-        <v>1884.3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025/02/28</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+      <c r="C10">
+        <v>1884.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
         <v>1839.7</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>1859</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025/01/31</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
         <v>1676.3</v>
       </c>
-      <c r="C12" t="n">
-        <v>1708.4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2024/12/31</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+      <c r="C12">
+        <v>1707.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
         <v>1799.3</v>
       </c>
-      <c r="C13" t="n">
-        <v>1814.5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2024/11/30</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+      <c r="C13">
+        <v>1814.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
         <v>1878.9</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>1889.3</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2024/10/31</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
         <v>1994.6</v>
       </c>
-      <c r="C15" t="n">
-        <v>2004.4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2024/09/30</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+      <c r="C15">
+        <v>2004.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
         <v>1986.2</v>
       </c>
-      <c r="C16" t="n">
-        <v>2001.4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2024/08/31</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+      <c r="C16">
+        <v>2001.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
         <v>2335.5</v>
       </c>
-      <c r="C17" t="n">
-        <v>2332</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2024/07/31</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+      <c r="C17">
+        <v>2332.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
         <v>2403.7</v>
       </c>
-      <c r="C18" t="n">
-        <v>2402.9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2024/06/30</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+      <c r="C18">
+        <v>2402.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
         <v>2487.6</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>2466.6</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2024/05/31</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
         <v>2394.3</v>
       </c>
-      <c r="C20" t="n">
-        <v>2387.3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2024/04/30</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+      <c r="C20">
+        <v>2387.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
         <v>2279.3</v>
       </c>
-      <c r="C21" t="n">
-        <v>2274.9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2024/03/31</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+      <c r="C21">
+        <v>2274.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
         <v>2347.5</v>
       </c>
-      <c r="C22" t="n">
-        <v>2348.2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2024/02/29</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+      <c r="C22">
+        <v>2348.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
         <v>2564.1</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>2541.2</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2024/01/31</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
         <v>2666.8</v>
       </c>
-      <c r="C24" t="n">
-        <v>2630.9</v>
+      <c r="C24">
+        <v>2631.1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/汽柴煤油2.0/eta/TA-SC_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/TA-SC_月度数据.xlsx
@@ -1,123 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>真实值</t>
-  </si>
-  <si>
-    <t>预测值</t>
-  </si>
-  <si>
-    <t>2025/11/30</t>
-  </si>
-  <si>
-    <t>2025/10/31</t>
-  </si>
-  <si>
-    <t>2025/09/30</t>
-  </si>
-  <si>
-    <t>2025/08/31</t>
-  </si>
-  <si>
-    <t>2025/07/31</t>
-  </si>
-  <si>
-    <t>2025/06/30</t>
-  </si>
-  <si>
-    <t>2025/05/31</t>
-  </si>
-  <si>
-    <t>2025/04/30</t>
-  </si>
-  <si>
-    <t>2025/03/31</t>
-  </si>
-  <si>
-    <t>2025/02/28</t>
-  </si>
-  <si>
-    <t>2025/01/31</t>
-  </si>
-  <si>
-    <t>2024/12/31</t>
-  </si>
-  <si>
-    <t>2024/11/30</t>
-  </si>
-  <si>
-    <t>2024/10/31</t>
-  </si>
-  <si>
-    <t>2024/09/30</t>
-  </si>
-  <si>
-    <t>2024/08/31</t>
-  </si>
-  <si>
-    <t>2024/07/31</t>
-  </si>
-  <si>
-    <t>2024/06/30</t>
-  </si>
-  <si>
-    <t>2024/05/31</t>
-  </si>
-  <si>
-    <t>2024/04/30</t>
-  </si>
-  <si>
-    <t>2024/03/31</t>
-  </si>
-  <si>
-    <t>2024/02/29</t>
-  </si>
-  <si>
-    <t>2024/01/31</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -132,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -448,275 +420,334 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>1952.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>1906</v>
-      </c>
-      <c r="C3">
-        <v>1931.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>真实值</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>预测值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025/11/30</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>1943.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025/10/31</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1911</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1918.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025/09/30</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>1898.7</v>
       </c>
-      <c r="C4">
-        <v>1939.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
+      <c r="C4" t="n">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025/08/31</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>1958.5</v>
       </c>
-      <c r="C5">
-        <v>1969.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
+      <c r="C5" t="n">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025/07/31</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>1883.6</v>
       </c>
-      <c r="C6">
-        <v>1895.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
+      <c r="C6" t="n">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025/06/30</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>1867.8</v>
       </c>
-      <c r="C7">
-        <v>1888.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
+      <c r="C7" t="n">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025/05/31</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>2055.2</v>
       </c>
-      <c r="C8">
-        <v>2065.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
+      <c r="C8" t="n">
+        <v>2064.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025/04/30</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>1635.2</v>
       </c>
-      <c r="C9">
-        <v>1689.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
+      <c r="C9" t="n">
+        <v>1691.2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025/03/31</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>1880.9</v>
       </c>
-      <c r="C10">
-        <v>1884.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
+      <c r="C10" t="n">
+        <v>1883.9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025/02/28</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>1839.7</v>
       </c>
-      <c r="C11">
-        <v>1859</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
+      <c r="C11" t="n">
+        <v>1859.1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025/01/31</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>1676.3</v>
       </c>
-      <c r="C12">
-        <v>1707.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
+      <c r="C12" t="n">
+        <v>1708.1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024/12/31</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>1799.3</v>
       </c>
-      <c r="C13">
-        <v>1814.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
+      <c r="C13" t="n">
+        <v>1814.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024/11/30</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>1878.9</v>
       </c>
-      <c r="C14">
-        <v>1889.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
+      <c r="C14" t="n">
+        <v>1888.9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024/10/31</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>1994.6</v>
       </c>
-      <c r="C15">
-        <v>2004.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
+      <c r="C15" t="n">
+        <v>2004.3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024/09/30</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>1986.2</v>
       </c>
-      <c r="C16">
-        <v>2001.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
+      <c r="C16" t="n">
+        <v>2001.1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024/08/31</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>2335.5</v>
       </c>
-      <c r="C17">
-        <v>2332.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
+      <c r="C17" t="n">
+        <v>2333.4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024/07/31</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>2403.7</v>
       </c>
-      <c r="C18">
-        <v>2402.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
+      <c r="C18" t="n">
+        <v>2402.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024/06/30</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>2487.6</v>
       </c>
-      <c r="C19">
-        <v>2466.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20">
+      <c r="C19" t="n">
+        <v>2465.8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024/05/31</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>2394.3</v>
       </c>
-      <c r="C20">
-        <v>2387.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21">
+      <c r="C20" t="n">
+        <v>2387.8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024/04/30</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
         <v>2279.3</v>
       </c>
-      <c r="C21">
-        <v>2274.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
+      <c r="C21" t="n">
+        <v>2275.2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024/03/31</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
         <v>2347.5</v>
       </c>
-      <c r="C22">
-        <v>2348.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23">
+      <c r="C22" t="n">
+        <v>2347.6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024/02/29</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
         <v>2564.1</v>
       </c>
-      <c r="C23">
-        <v>2541.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24">
+      <c r="C23" t="n">
+        <v>2540.3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024/01/31</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
         <v>2666.8</v>
       </c>
-      <c r="C24">
-        <v>2631.1</v>
+      <c r="C24" t="n">
+        <v>2631</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>